--- a/SISホームページ/画面定義書/SC_006_001_会社紹介_管理.xlsx
+++ b/SISホームページ/画面定義書/SC_006_001_会社紹介_管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisnt\OneDrive\デスクトップ\project_SIS\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE5477-0610-4F3F-9365-34B09DF38E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F6B59F-71EA-49A8-950D-5F5C88356436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表示" sheetId="5" r:id="rId1"/>
@@ -1891,126 +1891,132 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,15 +2095,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,41 +2155,74 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2164,73 +2239,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2239,21 +2254,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,12 +2273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3910,704 +3910,671 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="9"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="9"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="9"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="9"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="1:15" ht="13.8" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="37" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="37" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9"/>
-      <c r="B23" s="63">
+      <c r="B23" s="40">
         <v>45623</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="40" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="42"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="67"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="9"/>
-      <c r="B24" s="155">
+      <c r="B24" s="42">
         <v>45628</v>
       </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="65" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="43" t="s">
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="68"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="9"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="69"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="9"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="9"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="9"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="31"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="69"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="9"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="31"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="69"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="9"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="9"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="31"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="9"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="31"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="9"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="9"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="9"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="9"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="69"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="9"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="69"/>
     </row>
     <row r="38" spans="1:15" ht="13.8" thickBot="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="34"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B2:O21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="K34:O34"/>
     <mergeCell ref="F36:J36"/>
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="F38:J38"/>
@@ -4624,16 +4591,49 @@
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="F34:J34"/>
     <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:O21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4645,7 +4645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J35"/>
     </sheetView>
   </sheetViews>
@@ -4657,428 +4657,428 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17.100000000000001" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="L2" s="85" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="L2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81"/>
-      <c r="L3" s="87" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="L3" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="92" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="71" t="s">
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="73"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="5" spans="2:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
     </row>
     <row r="35" spans="2:10" ht="13.8" thickBot="1">
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5101,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17:S17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5117,113 +5117,113 @@
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="109"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="109" t="s">
+      <c r="P2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109" t="s">
+      <c r="S2" s="106"/>
+      <c r="T2" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="110"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="107"/>
     </row>
     <row r="3" spans="2:25" s="19" customFormat="1" ht="17.399999999999999">
       <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="106" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="97" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="97"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="L3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="97"/>
+      <c r="N3" s="108"/>
       <c r="O3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="102" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="104"/>
-      <c r="R3" s="103" t="s">
+      <c r="R3" s="102" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="104"/>
-      <c r="T3" s="97" t="s">
+      <c r="T3" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="112"/>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="103" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="105"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="104"/>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="102" t="s">
         <v>61</v>
       </c>
       <c r="J4" s="104"/>
@@ -5233,45 +5233,45 @@
       <c r="L4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="95"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="102" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="104"/>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="102" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="104"/>
-      <c r="T4" s="95" t="s">
+      <c r="T4" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="103" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="104"/>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="104"/>
@@ -5281,45 +5281,45 @@
       <c r="L5" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="95"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="103" t="s">
+      <c r="P5" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q5" s="104"/>
-      <c r="R5" s="95" t="s">
+      <c r="R5" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95" t="s">
+      <c r="S5" s="101"/>
+      <c r="T5" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="96"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="105"/>
     </row>
     <row r="6" spans="2:25">
       <c r="B6" s="27">
         <v>4</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="104"/>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="105"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="104"/>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="104"/>
@@ -5329,45 +5329,45 @@
       <c r="L6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="95"/>
+      <c r="N6" s="101"/>
       <c r="O6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="104"/>
-      <c r="R6" s="95" t="s">
+      <c r="R6" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95" t="s">
+      <c r="S6" s="101"/>
+      <c r="T6" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="96"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="2:25">
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="103" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="104"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="104"/>
@@ -5377,45 +5377,45 @@
       <c r="L7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="95"/>
+      <c r="N7" s="101"/>
       <c r="O7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q7" s="104"/>
-      <c r="R7" s="95" t="s">
+      <c r="R7" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95" t="s">
+      <c r="S7" s="101"/>
+      <c r="T7" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="96"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="105"/>
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="103" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="104"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="104"/>
@@ -5425,45 +5425,45 @@
       <c r="L8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="95" t="s">
+      <c r="M8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="95"/>
+      <c r="N8" s="101"/>
       <c r="O8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="103" t="s">
+      <c r="P8" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="104"/>
-      <c r="R8" s="95" t="s">
+      <c r="R8" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="95"/>
-      <c r="T8" s="99" t="s">
+      <c r="S8" s="101"/>
+      <c r="T8" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="100"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="114"/>
     </row>
     <row r="9" spans="2:25">
       <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="103" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="105"/>
+      <c r="G9" s="103"/>
       <c r="H9" s="104"/>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="104"/>
@@ -5473,45 +5473,45 @@
       <c r="L9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="95" t="s">
+      <c r="M9" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="95"/>
+      <c r="N9" s="101"/>
       <c r="O9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q9" s="104"/>
-      <c r="R9" s="95" t="s">
+      <c r="R9" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95" t="s">
+      <c r="S9" s="101"/>
+      <c r="T9" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="96"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="105"/>
     </row>
     <row r="10" spans="2:25">
       <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="103" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="104"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="104"/>
@@ -5521,45 +5521,45 @@
       <c r="L10" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="95"/>
+      <c r="N10" s="101"/>
       <c r="O10" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="103" t="s">
+      <c r="P10" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="104"/>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="95"/>
-      <c r="T10" s="101" t="s">
+      <c r="S10" s="101"/>
+      <c r="T10" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="102"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="2:25">
       <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="103" t="s">
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J11" s="104"/>
@@ -5569,45 +5569,45 @@
       <c r="L11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="95" t="s">
+      <c r="M11" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="95"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="103" t="s">
+      <c r="P11" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q11" s="104"/>
-      <c r="R11" s="95" t="s">
+      <c r="R11" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95" t="s">
+      <c r="S11" s="101"/>
+      <c r="T11" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="96"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="105"/>
     </row>
     <row r="12" spans="2:25">
       <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="103" t="s">
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="104"/>
@@ -5617,45 +5617,45 @@
       <c r="L12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="95" t="s">
+      <c r="M12" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="95"/>
+      <c r="N12" s="101"/>
       <c r="O12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="103" t="s">
+      <c r="P12" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="104"/>
-      <c r="R12" s="95" t="s">
+      <c r="R12" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95" t="s">
+      <c r="S12" s="101"/>
+      <c r="T12" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="96"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="105"/>
     </row>
     <row r="13" spans="2:25">
       <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="103" t="s">
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="104"/>
@@ -5665,45 +5665,45 @@
       <c r="L13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="95"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="103" t="s">
+      <c r="P13" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="104"/>
-      <c r="R13" s="95" t="s">
+      <c r="R13" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95" t="s">
+      <c r="S13" s="101"/>
+      <c r="T13" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="96"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="105"/>
     </row>
     <row r="14" spans="2:25">
       <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="103" t="s">
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="104"/>
@@ -5713,45 +5713,45 @@
       <c r="L14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="95"/>
+      <c r="N14" s="101"/>
       <c r="O14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="103" t="s">
+      <c r="P14" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q14" s="104"/>
-      <c r="R14" s="95" t="s">
+      <c r="R14" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95" t="s">
+      <c r="S14" s="101"/>
+      <c r="T14" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="96"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="105"/>
     </row>
     <row r="15" spans="2:25">
       <c r="B15" s="27">
         <v>13</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="103" t="s">
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="104"/>
@@ -5761,45 +5761,45 @@
       <c r="L15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="95" t="s">
+      <c r="M15" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="95"/>
+      <c r="N15" s="101"/>
       <c r="O15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="103" t="s">
+      <c r="P15" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q15" s="104"/>
-      <c r="R15" s="95" t="s">
+      <c r="R15" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95" t="s">
+      <c r="S15" s="101"/>
+      <c r="T15" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="96"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="105"/>
     </row>
     <row r="16" spans="2:25">
       <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="103" t="s">
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J16" s="104"/>
@@ -5809,93 +5809,93 @@
       <c r="L16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="95" t="s">
+      <c r="M16" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="95"/>
+      <c r="N16" s="101"/>
       <c r="O16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="103" t="s">
+      <c r="P16" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="104"/>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95" t="s">
+      <c r="S16" s="101"/>
+      <c r="T16" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="96"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="105"/>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="27">
         <v>15</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="103" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="105"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="104"/>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="95"/>
+      <c r="J17" s="101"/>
       <c r="K17" s="28" t="s">
         <v>62</v>
       </c>
       <c r="L17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="95" t="s">
+      <c r="M17" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="95"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="28">
-        <v>2000</v>
-      </c>
-      <c r="P17" s="95" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95" t="s">
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95" t="s">
+      <c r="S17" s="101"/>
+      <c r="T17" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="96"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="105"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="27">
         <v>16</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="103" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="105"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="104"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J18" s="104"/>
@@ -5905,45 +5905,45 @@
       <c r="L18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="95" t="s">
+      <c r="M18" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="95"/>
+      <c r="N18" s="101"/>
       <c r="O18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="103" t="s">
+      <c r="P18" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q18" s="104"/>
-      <c r="R18" s="95" t="s">
+      <c r="R18" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95" t="s">
+      <c r="S18" s="101"/>
+      <c r="T18" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="96"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="105"/>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="27">
         <v>17</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="103" t="s">
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="102" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="104"/>
@@ -5953,159 +5953,184 @@
       <c r="L19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="95" t="s">
+      <c r="M19" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="95"/>
+      <c r="N19" s="101"/>
       <c r="O19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="103" t="s">
+      <c r="P19" s="102" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="104"/>
-      <c r="R19" s="95" t="s">
+      <c r="R19" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95" t="s">
+      <c r="S19" s="101"/>
+      <c r="T19" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="96"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="105"/>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" s="2"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="114"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="100"/>
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="2"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="114"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="100"/>
     </row>
     <row r="22" spans="2:25" ht="13.8" thickBot="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="113"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:J15"/>
@@ -6130,80 +6155,55 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:Y21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6215,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D62D5B-5DF9-46D3-AAB4-4AF5D11ABADD}">
   <dimension ref="B1:W30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6231,857 +6231,727 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17.100000000000001" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:23" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="131"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="133" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="133" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="133" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="135"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="122"/>
     </row>
     <row r="3" spans="2:23" ht="42" customHeight="1">
-      <c r="B3" s="136">
+      <c r="B3" s="123">
         <v>15</v>
       </c>
-      <c r="C3" s="137"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="140" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="139" t="s">
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="142"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="129"/>
     </row>
     <row r="4" spans="2:23" ht="18">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="129"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="134"/>
     </row>
     <row r="5" spans="2:23">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="124"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="139"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="124"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="139"/>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="124"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="139"/>
     </row>
     <row r="8" spans="2:23">
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="124"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="139"/>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="124"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="139"/>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="124"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="139"/>
     </row>
     <row r="11" spans="2:23">
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="124"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="139"/>
     </row>
     <row r="12" spans="2:23">
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="124"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="139"/>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="124"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="139"/>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="124"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="139"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="124"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="139"/>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="124"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="139"/>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="124"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="139"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="124"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="139"/>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="124"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="139"/>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="124"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="139"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="124"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="139"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="124"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="139"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="124"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="139"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="124"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="139"/>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="124"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="139"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="124"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="139"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="124"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="139"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="124"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="139"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="124"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="139"/>
     </row>
     <row r="30" spans="2:23" ht="13.8" thickBot="1">
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="119"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="142"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="S27:W27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="H30:K30"/>
@@ -7097,6 +6967,136 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:R29"/>
     <mergeCell ref="S29:W29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7125,357 +7125,362 @@
       <c r="B2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="149"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="2:14" ht="19.95" customHeight="1">
       <c r="B3" s="27">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="106" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="148"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="147"/>
     </row>
     <row r="4" spans="2:14" ht="19.95" customHeight="1">
       <c r="B4" s="27">
         <v>4</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="105"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="104"/>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
       <c r="N4" s="145"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1">
       <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="103" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
       <c r="N5" s="145"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" customHeight="1">
       <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="103" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="145"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1">
       <c r="B7" s="27">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="103" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="145"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1">
       <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="103" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
       <c r="N8" s="145"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1">
       <c r="B9" s="27">
         <v>9</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="103" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
       <c r="N9" s="145"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1">
       <c r="B10" s="27">
         <v>10</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="103" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="145"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1">
       <c r="B11" s="27">
         <v>11</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="103" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="145"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1">
       <c r="B12" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="103" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="145"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1">
       <c r="B13" s="27">
         <v>13</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="103" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="145"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1">
       <c r="B14" s="27">
         <v>14</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="103" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1">
       <c r="B15" s="27">
         <v>16</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="103" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
       <c r="N15" s="145"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1">
       <c r="B16" s="27">
         <v>17</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="103" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
       <c r="N16" s="145"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1">
       <c r="B17" s="15"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="144"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="149"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" thickBot="1">
       <c r="B18" s="16"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="144"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F10:N10"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="C12:E12"/>
@@ -7489,19 +7494,14 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7531,16 +7531,16 @@
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
@@ -7558,16 +7558,16 @@
       <c r="B3" s="27">
         <v>15</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="152" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
       <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
@@ -7583,12 +7583,12 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="15"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -7596,12 +7596,12 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -7609,12 +7609,12 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="15"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -7622,12 +7622,12 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="15"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -7635,12 +7635,12 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="15"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -7648,12 +7648,12 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="15"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -7661,12 +7661,12 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="15"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -7674,12 +7674,12 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="15"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -7687,12 +7687,12 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="15"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -7700,12 +7700,12 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="15"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -7713,12 +7713,12 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -7726,12 +7726,12 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="15"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -7739,12 +7739,12 @@
     </row>
     <row r="16" spans="2:12" ht="13.8" thickBot="1">
       <c r="B16" s="16"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -7752,28 +7752,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F9:H9"/>
@@ -7782,6 +7760,28 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
